--- a/NEW_alignment/PLS1_HUMAN.xlsx
+++ b/NEW_alignment/PLS1_HUMAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scher\Documents\TMR観察\NEW_alignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E52CD6-9DD9-4687-9DCD-F09EC9BBA792}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5115D25-EC10-4F8F-ADF0-5072B7B806F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{92085838-BC66-4D6F-A883-872C35FAC3D3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{92085838-BC66-4D6F-A883-872C35FAC3D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="53">
   <si>
     <t>M</t>
     <phoneticPr fontId="2"/>
@@ -231,12 +231,51 @@
     <t>1~</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>残基数(1~)</t>
+    <rPh sb="0" eb="3">
+      <t>ザンキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,8 +320,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,19 +338,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,14 +373,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -347,10 +394,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E54568-95E8-488E-B33D-5063AAA87740}">
   <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF24" sqref="AF24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1181,61 +1228,61 @@
       <c r="L4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Y4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AA4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AC4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AD4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AE4" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1263,47 +1310,47 @@
         <f>VLOOKUP(F4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>-1.6</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="8">
         <f>VLOOKUP(G4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="8">
         <f>VLOOKUP(H4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>-3.5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="8">
         <f>VLOOKUP(I4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>3.8</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="8">
         <f>VLOOKUP(J4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>-3.5</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="8">
         <f>VLOOKUP(K4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>4.2</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="8">
         <f>VLOOKUP(L4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>-3.9</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="8">
         <f>VLOOKUP(M4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>1.9</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="8">
         <f>VLOOKUP(N4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>-3.9</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="8">
         <f>VLOOKUP(O4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>1.8</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="8">
         <f>VLOOKUP(P4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>4.2</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="8">
         <f>VLOOKUP(Q4,Sheet1!$A$1:$B$20,2,FALSE)</f>
         <v>1.9</v>
       </c>
@@ -1368,15 +1415,15 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <f>SUM(B5:C5)</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" ref="D6:AE6" si="0">SUM(C5:D5)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>-6.3</v>
       </c>
@@ -1388,99 +1435,99 @@
         <f t="shared" si="0"/>
         <v>2.1999999999999997</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
         <v>0.29999999999999982</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="8">
         <f t="shared" si="0"/>
         <v>0.29999999999999982</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="8">
         <f t="shared" si="0"/>
         <v>0.29999999999999982</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="8">
         <f t="shared" si="0"/>
         <v>0.70000000000000018</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="8">
         <f t="shared" si="0"/>
         <v>0.30000000000000027</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="8">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="8">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="8">
         <f t="shared" si="0"/>
         <v>-2.0999999999999996</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="8">
         <f t="shared" si="0"/>
         <v>6.1</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <f t="shared" si="0"/>
         <v>6.4</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <f t="shared" si="0"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="3">
         <f t="shared" si="0"/>
         <v>4.3</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <f t="shared" si="0"/>
         <v>-0.29999999999999982</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X6" s="3">
         <f t="shared" si="0"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y6" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="3">
         <f t="shared" si="0"/>
         <v>-6.3</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="3">
         <f t="shared" si="0"/>
         <v>-0.89999999999999991</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AB6" s="3">
         <f t="shared" si="0"/>
         <v>-0.89999999999999991</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AC6" s="3">
         <f t="shared" si="0"/>
         <v>-5.6</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AD6" s="3">
         <f t="shared" si="0"/>
         <v>-6.3</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AE6" s="3">
         <f t="shared" si="0"/>
         <v>-4.3</v>
       </c>
@@ -1489,120 +1536,120 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f>E6-C6</f>
         <v>-10.399999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f t="shared" ref="F7:AE7" si="1">F6-D6</f>
         <v>-5.4</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f>G6-E6</f>
         <v>8.5</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <f t="shared" si="1"/>
         <v>4.7</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
         <v>-1.9</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="8">
         <f t="shared" si="1"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="8">
         <f t="shared" si="1"/>
         <v>4.4408920985006262E-16</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="8">
         <f t="shared" si="1"/>
         <v>-2.7</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="8">
         <f t="shared" si="1"/>
         <v>-2.3000000000000003</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="8">
         <f t="shared" si="1"/>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="8">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="9">
         <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <f t="shared" si="1"/>
         <v>0.40000000000000036</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <f t="shared" si="1"/>
         <v>0.20000000000000018</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <f t="shared" si="1"/>
         <v>-1.6999999999999997</v>
       </c>
-      <c r="W7" s="4">
+      <c r="W7" s="3">
         <f t="shared" si="1"/>
         <v>-3.3</v>
       </c>
-      <c r="X7" s="4">
+      <c r="X7" s="3">
         <f t="shared" si="1"/>
         <v>8.6000000000000014</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="Y7" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="3">
         <f t="shared" si="1"/>
         <v>-14.600000000000001</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="3">
         <f t="shared" si="1"/>
         <v>-1.9</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AB7" s="3">
         <f t="shared" si="1"/>
         <v>5.4</v>
       </c>
-      <c r="AC7" s="4">
+      <c r="AC7" s="3">
         <f t="shared" si="1"/>
         <v>-4.6999999999999993</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AD7" s="3">
         <f t="shared" si="1"/>
         <v>-5.4</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AE7" s="3">
         <f t="shared" si="1"/>
         <v>1.2999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:32">
-      <c r="K8" s="4"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="K9" s="4"/>
+      <c r="K9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1613,183 +1660,756 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B49026-BD6F-4B9E-B906-B65F1E240224}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="5" width="4.5" style="2" customWidth="1"/>
-    <col min="6" max="22" width="4.5" customWidth="1"/>
+    <col min="2" max="31" width="4.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="2">
+        <v>288</v>
+      </c>
+      <c r="C1" s="2">
+        <v>289</v>
+      </c>
+      <c r="D1" s="2">
+        <v>290</v>
+      </c>
+      <c r="E1" s="2">
+        <v>291</v>
+      </c>
+      <c r="F1" s="2">
+        <v>292</v>
+      </c>
+      <c r="G1" s="2">
+        <v>293</v>
+      </c>
+      <c r="H1" s="2">
+        <v>294</v>
+      </c>
+      <c r="I1" s="2">
+        <v>295</v>
+      </c>
+      <c r="J1" s="2">
+        <v>296</v>
+      </c>
+      <c r="K1" s="2">
+        <v>297</v>
+      </c>
+      <c r="L1" s="2">
+        <v>298</v>
+      </c>
+      <c r="M1" s="2">
+        <v>299</v>
+      </c>
+      <c r="N1" s="2">
+        <v>300</v>
+      </c>
+      <c r="O1" s="2">
+        <v>301</v>
+      </c>
+      <c r="P1" s="2">
+        <v>302</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>303</v>
+      </c>
+      <c r="R1" s="2">
+        <v>304</v>
+      </c>
+      <c r="S1" s="2">
+        <v>305</v>
+      </c>
+      <c r="T1" s="2">
+        <v>306</v>
+      </c>
+      <c r="U1" s="2">
+        <v>307</v>
+      </c>
+      <c r="V1" s="2">
+        <v>308</v>
+      </c>
+      <c r="W1" s="2">
+        <v>309</v>
+      </c>
+      <c r="X1" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>313</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>314</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>315</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>316</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2">
+        <v>289</v>
+      </c>
+      <c r="C2" s="2">
+        <v>290</v>
+      </c>
+      <c r="D2" s="2">
+        <v>291</v>
+      </c>
+      <c r="E2" s="2">
+        <v>292</v>
+      </c>
+      <c r="F2" s="2">
+        <v>293</v>
+      </c>
+      <c r="G2" s="2">
+        <v>294</v>
+      </c>
+      <c r="H2" s="2">
+        <v>295</v>
+      </c>
+      <c r="I2" s="2">
+        <v>296</v>
+      </c>
+      <c r="J2" s="2">
+        <v>297</v>
+      </c>
+      <c r="K2" s="2">
+        <v>298</v>
+      </c>
+      <c r="L2" s="2">
+        <v>299</v>
+      </c>
+      <c r="M2" s="2">
+        <v>300</v>
+      </c>
+      <c r="N2" s="2">
+        <v>301</v>
+      </c>
+      <c r="O2" s="2">
+        <v>302</v>
+      </c>
+      <c r="P2" s="2">
+        <v>303</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>304</v>
+      </c>
+      <c r="R2" s="2">
+        <v>305</v>
+      </c>
+      <c r="S2" s="2">
+        <v>306</v>
+      </c>
+      <c r="T2" s="2">
+        <v>307</v>
+      </c>
+      <c r="U2" s="2">
+        <v>308</v>
+      </c>
+      <c r="V2" s="2">
+        <v>309</v>
+      </c>
+      <c r="W2" s="2">
+        <v>310</v>
+      </c>
+      <c r="X2" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>312</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>313</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>314</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>315</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>316</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>317</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-4</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4</v>
+      </c>
+      <c r="P3" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>6</v>
+      </c>
+      <c r="R3" s="2">
+        <v>7</v>
+      </c>
+      <c r="S3" s="2">
+        <v>8</v>
+      </c>
+      <c r="T3" s="2">
+        <v>9</v>
+      </c>
+      <c r="U3" s="2">
+        <v>10</v>
+      </c>
+      <c r="V3" s="2">
+        <v>11</v>
+      </c>
+      <c r="W3" s="2">
+        <v>12</v>
+      </c>
+      <c r="X3" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="2">
         <v>16</v>
       </c>
-      <c r="C1" s="2">
+      <c r="AB3" s="2">
         <v>17</v>
       </c>
-      <c r="D1" s="2">
+      <c r="AC3" s="2">
         <v>18</v>
       </c>
-      <c r="E1" s="2">
+      <c r="AD3" s="2">
         <v>19</v>
       </c>
-      <c r="F1" s="2">
+      <c r="AE3" s="2">
         <v>20</v>
       </c>
-      <c r="G1" s="2">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2">
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="2">
-        <v>24</v>
-      </c>
-      <c r="K1" s="2">
-        <v>25</v>
-      </c>
-      <c r="L1" s="2">
+      <c r="L4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="2">
-        <v>27</v>
-      </c>
-      <c r="N1" s="2">
-        <v>28</v>
-      </c>
-      <c r="O1" s="2">
-        <v>29</v>
-      </c>
-      <c r="P1" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>31</v>
-      </c>
-      <c r="R1" s="2">
+      <c r="O4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="2">
-        <v>33</v>
-      </c>
-      <c r="T1" s="2">
-        <v>34</v>
-      </c>
-      <c r="U1" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
+      <c r="T4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
+      <c r="B5" s="2">
+        <f>VLOOKUP(B4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.9</v>
+      </c>
+      <c r="C5" s="2">
+        <f>VLOOKUP(C4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.9</v>
+      </c>
+      <c r="D5" s="2">
+        <f>VLOOKUP(D4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="E5" s="2">
+        <f>VLOOKUP(E4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="F5" s="2">
+        <f>VLOOKUP(F4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.9</v>
+      </c>
+      <c r="G5" s="2">
+        <f>VLOOKUP(G4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="2">
+        <f>VLOOKUP(H4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="I5" s="2">
+        <f>VLOOKUP(I4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.8</v>
+      </c>
+      <c r="J5" s="2">
+        <f>VLOOKUP(J4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="2">
+        <f>VLOOKUP(K4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="L5" s="2">
+        <f>VLOOKUP(L4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>3.8</v>
+      </c>
+      <c r="M5" s="8">
+        <f>VLOOKUP(M4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.5</v>
+      </c>
+      <c r="N5" s="8">
+        <f>VLOOKUP(N4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="O5" s="8">
+        <f>VLOOKUP(O4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="P5" s="8">
+        <f>VLOOKUP(P4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>1.9</v>
+      </c>
+      <c r="Q5" s="8">
+        <f>VLOOKUP(Q4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="R5" s="8">
+        <f>VLOOKUP(R4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-2.8</v>
+      </c>
+      <c r="S5" s="8">
+        <f>VLOOKUP(S4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="T5" s="8">
+        <f>VLOOKUP(T4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.8</v>
+      </c>
+      <c r="U5" s="8">
+        <f>VLOOKUP(U4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.7</v>
+      </c>
+      <c r="V5" s="8">
+        <f>VLOOKUP(V4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="W5" s="8">
+        <f>VLOOKUP(W4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.8</v>
+      </c>
+      <c r="X5" s="2">
+        <f>VLOOKUP(X4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>VLOOKUP(Y4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>VLOOKUP(Z4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.5</v>
+      </c>
+      <c r="AA5" s="2">
+        <f>VLOOKUP(AA4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-3.9</v>
+      </c>
+      <c r="AB5" s="2">
+        <f>VLOOKUP(AB4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.8</v>
+      </c>
+      <c r="AC5" s="2">
+        <f>VLOOKUP(AC4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="AD5" s="2">
+        <f>VLOOKUP(AD4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>4.2</v>
+      </c>
+      <c r="AE5" s="2">
+        <f>VLOOKUP(AE4,Sheet1!$A$1:$B$20,2,FALSE)</f>
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
+      <c r="C6" s="2">
+        <f>SUM(B5:C5)</f>
+        <v>-2</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ref="D6:AE6" si="0">SUM(C5:D5)</f>
+        <v>-2.0999999999999996</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.3</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="0"/>
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="0"/>
+        <v>-5.6</v>
+      </c>
+      <c r="S6" s="8">
+        <f t="shared" si="0"/>
+        <v>-6.3</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="0"/>
+        <v>-4.3</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.3</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="0"/>
+        <v>-7</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.4</v>
+      </c>
+      <c r="AB6" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.7</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="AE6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="E7" s="3">
+        <f>-E6+C6</f>
+        <v>-8</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" ref="F7:AE7" si="1">-F6+D6</f>
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6999999999999997</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.6000000000000014</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>14.600000000000001</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="1"/>
+        <v>-5.4</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="1"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.2999999999999998</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="1"/>
+        <v>-4.8</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="1"/>
+        <v>-3.1999999999999997</v>
+      </c>
+      <c r="W7" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999997</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+      <c r="Z7" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.2</v>
+      </c>
+      <c r="AD7" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.5</v>
+      </c>
+      <c r="AE7" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
